--- a/infocovid19.xlsx
+++ b/infocovid19.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mspasgt-my.sharepoint.com/personal/jguerra_mspas_gob_gt/Documents/COVID-19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0BBD5F4-0BD7-46B9-B67F-4E1935060360}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="525" documentId="13_ncr:1_{57855976-4969-654B-BADA-939B4A937925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9C06539C-486F-B147-8076-5E6AA9DF8025}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="7200" windowWidth="28040" windowHeight="17440" firstSheet="5" activeTab="5" xr2:uid="{AA73A8E6-3049-124E-B539-6781E68448FF}"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="51200" windowHeight="28220" xr2:uid="{AA73A8E6-3049-124E-B539-6781E68448FF}"/>
   </bookViews>
   <sheets>
-    <sheet name="evolución de casos" sheetId="1" r:id="rId1"/>
-    <sheet name="Casos por día" sheetId="2" r:id="rId2"/>
+    <sheet name="Casos por día" sheetId="2" r:id="rId1"/>
+    <sheet name="evolución de casos" sheetId="1" r:id="rId2"/>
     <sheet name="Detalle por departamento" sheetId="6" r:id="rId3"/>
     <sheet name="Rango de edad" sheetId="4" r:id="rId4"/>
     <sheet name="Por género" sheetId="3" r:id="rId5"/>
@@ -43,19 +43,19 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Total de casos</t>
+    <t>Casos por día</t>
   </si>
   <si>
-    <t>Casos activos</t>
+    <t>Casos recuperados</t>
   </si>
   <si>
     <t>Casos fallecidos</t>
   </si>
   <si>
-    <t>Casos recuperados</t>
+    <t>Total de casos</t>
   </si>
   <si>
-    <t>Casos por día</t>
+    <t>Casos activos</t>
   </si>
   <si>
     <t>Alta Verapaz</t>
@@ -171,24 +171,24 @@
 San Marcos</t>
   </si>
   <si>
-    <t>Izabal_x000D_
-Zacapa_x000D_
-Chiquimula_x000D_
-Jalapa_x000D_
+    <t>Izabal
+Zacapa
+Chiquimula
+Jalapa
 El Progreso</t>
   </si>
   <si>
-    <t>Jutiapa_x000D_
-Santa Rosa_x000D_
-Escuintla_x000D_
-Suchitepéquez_x000D_
+    <t>Jutiapa
+Santa Rosa
+Escuintla
+Suchitepéquez
 Retalhuleu</t>
   </si>
   <si>
-    <t>Alta Verapaz_x000D_
-Baja Verapaz_x000D_
-Petén_x000D_
-Quiché_x000D_
+    <t>Alta Verapaz
+Baja Verapaz
+Petén
+Quiché
 Sololá</t>
   </si>
 </sst>
@@ -196,10 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0;###0"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -242,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -267,19 +264,6 @@
       <left/>
       <right style="thin">
         <color rgb="FF0C0F1F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF233B70"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0C0303"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF131F44"/>
       </right>
       <top style="thin">
         <color rgb="FF233B70"/>
@@ -393,103 +377,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0C0F1F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF233B70"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0C0303"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0C0F1F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0C0303"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF0F0303"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0C0F1F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF0F0303"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF030303"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0C0F1F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF030303"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF03030C"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF0C0F1F"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF03030C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF030303"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -498,34 +404,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -841,23 +729,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F735BD-EC18-8B43-9C7D-88AE6B932F9C}">
-  <dimension ref="A1:E100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CC24F-AAAE-6047-9ABE-572547F19D29}">
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -870,11 +756,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43903</v>
       </c>
@@ -882,1632 +765,1553 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43904</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43905</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43906</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43907</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43908</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43909</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43910</v>
       </c>
       <c r="B9">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43911</v>
       </c>
       <c r="B10">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43912</v>
       </c>
       <c r="B11">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43913</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43914</v>
       </c>
       <c r="B13">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43915</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43916</v>
       </c>
       <c r="B15">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43917</v>
       </c>
       <c r="B16">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43918</v>
       </c>
       <c r="B17">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43919</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43920</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43921</v>
       </c>
       <c r="B20">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43922</v>
       </c>
       <c r="B21">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43923</v>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43924</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43925</v>
       </c>
       <c r="B24">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43926</v>
       </c>
       <c r="B25">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43927</v>
       </c>
       <c r="B26">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>3</v>
-      </c>
-      <c r="E26">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43928</v>
       </c>
       <c r="B27">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>3</v>
-      </c>
-      <c r="E27">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43929</v>
       </c>
       <c r="B28">
-        <v>87</v>
+        <v>7</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43930</v>
       </c>
       <c r="B29">
-        <v>126</v>
+        <v>39</v>
       </c>
       <c r="C29">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43931</v>
       </c>
       <c r="B30">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="C30">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43932</v>
       </c>
       <c r="B31">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="C31">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43933</v>
       </c>
       <c r="B32">
-        <v>156</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>5</v>
-      </c>
-      <c r="E32">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43934</v>
       </c>
       <c r="B33">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>142</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>5</v>
-      </c>
-      <c r="E33">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43935</v>
       </c>
       <c r="B34">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43936</v>
       </c>
       <c r="B35">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43937</v>
       </c>
       <c r="B36">
-        <v>214</v>
+        <v>18</v>
       </c>
       <c r="C36">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>7</v>
-      </c>
-      <c r="E36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43938</v>
       </c>
       <c r="B37">
-        <v>235</v>
+        <v>21</v>
       </c>
       <c r="C37">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>7</v>
-      </c>
-      <c r="E37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>257</v>
+        <v>22</v>
       </c>
       <c r="C38">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43940</v>
       </c>
       <c r="B39">
-        <v>289</v>
+        <v>32</v>
       </c>
       <c r="C39">
-        <v>258</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>7</v>
-      </c>
-      <c r="E39">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43941</v>
       </c>
       <c r="B40">
-        <v>294</v>
+        <v>5</v>
       </c>
       <c r="C40">
-        <v>261</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>7</v>
-      </c>
-      <c r="E40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43942</v>
       </c>
       <c r="B41">
-        <v>316</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>342</v>
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>10</v>
-      </c>
-      <c r="E42">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>384</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="D43">
-        <v>11</v>
-      </c>
-      <c r="E43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43945</v>
       </c>
       <c r="B44">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>387</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>11</v>
-      </c>
-      <c r="E44">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>473</v>
+        <v>43</v>
       </c>
       <c r="C45">
-        <v>413</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>13</v>
-      </c>
-      <c r="E45">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>500</v>
+        <v>27</v>
       </c>
       <c r="C46">
-        <v>434</v>
+        <v>4</v>
       </c>
       <c r="D46">
-        <v>15</v>
-      </c>
-      <c r="E46">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43948</v>
       </c>
       <c r="B47">
-        <v>530</v>
+        <v>30</v>
       </c>
       <c r="C47">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>15</v>
-      </c>
-      <c r="E47">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>557</v>
+        <v>27</v>
       </c>
       <c r="C48">
-        <v>477</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>16</v>
-      </c>
-      <c r="E48">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43950</v>
       </c>
       <c r="B49">
-        <v>585</v>
+        <v>28</v>
       </c>
       <c r="C49">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D49">
-        <v>16</v>
-      </c>
-      <c r="E49">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>599</v>
+        <v>14</v>
       </c>
       <c r="C50">
-        <v>515</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>16</v>
-      </c>
-      <c r="E50">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43952</v>
       </c>
       <c r="B51">
-        <v>644</v>
+        <v>45</v>
       </c>
       <c r="C51">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D51">
-        <v>16</v>
-      </c>
-      <c r="E51">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43953</v>
       </c>
       <c r="B52">
-        <v>688</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>17</v>
-      </c>
-      <c r="E52">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>703</v>
+        <v>15</v>
       </c>
       <c r="C53">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>17</v>
-      </c>
-      <c r="E53">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43955</v>
       </c>
       <c r="B54">
-        <v>730</v>
+        <v>27</v>
       </c>
       <c r="C54">
-        <v>630</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>19</v>
-      </c>
-      <c r="E54">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43956</v>
       </c>
       <c r="B55">
-        <v>763</v>
+        <v>33</v>
       </c>
       <c r="C55">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>19</v>
-      </c>
-      <c r="E55">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
       <c r="B56">
-        <v>798</v>
+        <v>35</v>
       </c>
       <c r="C56">
-        <v>689</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>21</v>
-      </c>
-      <c r="E56">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43958</v>
       </c>
       <c r="B57">
-        <v>832</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>717</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>23</v>
-      </c>
-      <c r="E57">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43959</v>
       </c>
       <c r="B58">
-        <v>900</v>
+        <v>68</v>
       </c>
       <c r="C58">
-        <v>773</v>
+        <v>11</v>
       </c>
       <c r="D58">
-        <v>24</v>
-      </c>
-      <c r="E58">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43960</v>
       </c>
       <c r="B59">
-        <v>967</v>
+        <v>67</v>
       </c>
       <c r="C59">
-        <v>837</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>24</v>
-      </c>
-      <c r="E59">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43961</v>
       </c>
       <c r="B60">
-        <v>1052</v>
+        <v>85</v>
       </c>
       <c r="C60">
-        <v>914</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>26</v>
-      </c>
-      <c r="E60">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43962</v>
       </c>
       <c r="B61">
-        <v>1114</v>
+        <v>62</v>
       </c>
       <c r="C61">
-        <v>975</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>26</v>
-      </c>
-      <c r="E61">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43963</v>
       </c>
       <c r="B62">
-        <v>1199</v>
+        <v>85</v>
       </c>
       <c r="C62">
-        <v>1050</v>
+        <v>9</v>
       </c>
       <c r="D62">
-        <v>27</v>
-      </c>
-      <c r="E62">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43964</v>
       </c>
       <c r="B63">
-        <v>1342</v>
+        <v>143</v>
       </c>
       <c r="C63">
-        <v>1190</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>29</v>
-      </c>
-      <c r="E63">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43965</v>
       </c>
       <c r="B64">
-        <v>1518</v>
+        <v>176</v>
       </c>
       <c r="C64">
-        <v>1358</v>
+        <v>8</v>
       </c>
       <c r="D64">
-        <v>29</v>
-      </c>
-      <c r="E64">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43966</v>
       </c>
       <c r="B65">
-        <v>1643</v>
+        <v>125</v>
       </c>
       <c r="C65">
-        <v>1476</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43967</v>
       </c>
       <c r="B66">
-        <v>1763</v>
+        <v>120</v>
       </c>
       <c r="C66">
-        <v>1590</v>
+        <v>3</v>
       </c>
       <c r="D66">
-        <v>33</v>
-      </c>
-      <c r="E66">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43968</v>
       </c>
       <c r="B67">
-        <v>1912</v>
+        <v>149</v>
       </c>
       <c r="C67">
-        <v>1737</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>35</v>
-      </c>
-      <c r="E67">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43969</v>
       </c>
       <c r="B68">
-        <v>2001</v>
+        <v>89</v>
       </c>
       <c r="C68">
-        <v>1822</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>38</v>
-      </c>
-      <c r="E68">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43970</v>
       </c>
       <c r="B69">
-        <v>2133</v>
+        <v>132</v>
       </c>
       <c r="C69">
-        <v>1933</v>
+        <v>16</v>
       </c>
       <c r="D69">
-        <v>43</v>
-      </c>
-      <c r="E69">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43971</v>
       </c>
       <c r="B70">
-        <v>2265</v>
+        <v>132</v>
       </c>
       <c r="C70">
-        <v>2059</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>45</v>
-      </c>
-      <c r="E70">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43972</v>
       </c>
       <c r="B71">
-        <v>2512</v>
+        <v>247</v>
       </c>
       <c r="C71">
-        <v>2240</v>
+        <v>63</v>
       </c>
       <c r="D71">
-        <v>48</v>
-      </c>
-      <c r="E71">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43973</v>
       </c>
       <c r="B72">
-        <v>2743</v>
+        <v>231</v>
       </c>
       <c r="C72">
-        <v>2468</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>51</v>
-      </c>
-      <c r="E72">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43974</v>
       </c>
       <c r="B73">
-        <v>3054</v>
+        <v>311</v>
       </c>
       <c r="C73">
-        <v>2753</v>
+        <v>22</v>
       </c>
       <c r="D73">
-        <v>55</v>
-      </c>
-      <c r="E73">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43975</v>
       </c>
       <c r="B74">
-        <v>3424</v>
+        <v>370</v>
       </c>
       <c r="C74">
-        <v>3106</v>
+        <v>14</v>
       </c>
       <c r="D74">
-        <v>58</v>
-      </c>
-      <c r="E74">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43976</v>
       </c>
       <c r="B75">
-        <v>3760</v>
+        <v>336</v>
       </c>
       <c r="C75">
-        <v>3425</v>
+        <v>16</v>
       </c>
       <c r="D75">
-        <v>59</v>
-      </c>
-      <c r="E75">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43977</v>
       </c>
       <c r="B76">
-        <v>3954</v>
+        <v>194</v>
       </c>
       <c r="C76">
-        <v>3600</v>
+        <v>15</v>
       </c>
       <c r="D76">
-        <v>63</v>
-      </c>
-      <c r="E76">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43978</v>
       </c>
       <c r="B77">
-        <v>4145</v>
+        <v>191</v>
       </c>
       <c r="C77">
-        <v>3582</v>
+        <v>204</v>
       </c>
       <c r="D77">
-        <v>68</v>
-      </c>
-      <c r="E77">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43979</v>
       </c>
       <c r="B78">
-        <v>4348</v>
+        <v>203</v>
       </c>
       <c r="C78">
-        <v>3701</v>
+        <v>72</v>
       </c>
       <c r="D78">
-        <v>80</v>
-      </c>
-      <c r="E78">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43980</v>
       </c>
       <c r="B79">
-        <v>4607</v>
+        <v>259</v>
       </c>
       <c r="C79">
-        <v>3867</v>
+        <v>83</v>
       </c>
       <c r="D79">
-        <v>90</v>
-      </c>
-      <c r="E79">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43981</v>
       </c>
       <c r="B80">
-        <v>4739</v>
+        <v>132</v>
       </c>
       <c r="C80">
-        <v>3929</v>
+        <v>58</v>
       </c>
       <c r="D80">
-        <v>102</v>
-      </c>
-      <c r="E80">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43982</v>
       </c>
       <c r="B81">
-        <v>5087</v>
+        <v>348</v>
       </c>
       <c r="C81">
-        <v>4242</v>
+        <v>29</v>
       </c>
       <c r="D81">
-        <v>108</v>
-      </c>
-      <c r="E81">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43983</v>
       </c>
       <c r="B82">
-        <v>5336</v>
+        <v>249</v>
       </c>
       <c r="C82">
-        <v>4423</v>
+        <v>60</v>
       </c>
       <c r="D82">
-        <v>116</v>
-      </c>
-      <c r="E82">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43984</v>
       </c>
       <c r="B83">
-        <v>5586</v>
+        <v>250</v>
       </c>
       <c r="C83">
-        <v>4637</v>
+        <v>29</v>
       </c>
       <c r="D83">
-        <v>123</v>
-      </c>
-      <c r="E83">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43985</v>
       </c>
       <c r="B84">
-        <v>5760</v>
+        <v>174</v>
       </c>
       <c r="C84">
-        <v>4686</v>
+        <v>105</v>
       </c>
       <c r="D84">
-        <v>143</v>
-      </c>
-      <c r="E84">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43986</v>
       </c>
       <c r="B85">
-        <v>6154</v>
+        <v>394</v>
       </c>
       <c r="C85">
-        <v>5015</v>
+        <v>50</v>
       </c>
       <c r="D85">
-        <v>158</v>
-      </c>
-      <c r="E85">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43987</v>
       </c>
       <c r="B86">
-        <v>6485</v>
+        <v>331</v>
       </c>
       <c r="C86">
-        <v>5214</v>
+        <v>74</v>
       </c>
       <c r="D86">
-        <v>216</v>
-      </c>
-      <c r="E86">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43988</v>
       </c>
       <c r="B87">
-        <v>6792</v>
+        <v>307</v>
       </c>
       <c r="C87">
-        <v>5427</v>
+        <v>80</v>
       </c>
       <c r="D87">
-        <v>230</v>
-      </c>
-      <c r="E87">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43989</v>
       </c>
       <c r="B88">
-        <v>7055</v>
+        <v>263</v>
       </c>
       <c r="C88">
-        <v>5540</v>
+        <v>128</v>
       </c>
       <c r="D88">
-        <v>252</v>
-      </c>
-      <c r="E88">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>22</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43990</v>
       </c>
       <c r="B89">
-        <v>7502</v>
+        <v>447</v>
       </c>
       <c r="C89">
-        <v>5910</v>
+        <v>62</v>
       </c>
       <c r="D89">
-        <v>267</v>
-      </c>
-      <c r="E89">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43991</v>
       </c>
       <c r="B90">
-        <v>7866</v>
+        <v>364</v>
       </c>
       <c r="C90">
-        <v>6162</v>
+        <v>90</v>
       </c>
       <c r="D90">
-        <v>289</v>
-      </c>
-      <c r="E90">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43992</v>
       </c>
       <c r="B91">
-        <v>8221</v>
+        <v>355</v>
       </c>
       <c r="C91">
-        <v>6399</v>
+        <v>91</v>
       </c>
       <c r="D91">
-        <v>316</v>
-      </c>
-      <c r="E91">
-        <v>1504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43993</v>
       </c>
       <c r="B92">
-        <v>8561</v>
+        <v>340</v>
       </c>
       <c r="C92">
-        <v>6658</v>
+        <v>63</v>
       </c>
       <c r="D92">
-        <v>334</v>
-      </c>
-      <c r="E92">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43994</v>
       </c>
       <c r="B93">
-        <v>8982</v>
+        <v>421</v>
       </c>
       <c r="C93">
-        <v>6927</v>
+        <v>135</v>
       </c>
       <c r="D93">
-        <v>351</v>
-      </c>
-      <c r="E93">
-        <v>1702</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43995</v>
       </c>
       <c r="B94">
-        <v>9491</v>
+        <v>509</v>
       </c>
       <c r="C94">
-        <v>7318</v>
+        <v>102</v>
       </c>
       <c r="D94">
-        <v>367</v>
-      </c>
-      <c r="E94">
-        <v>1804</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43996</v>
       </c>
       <c r="B95">
-        <v>9845</v>
+        <v>354</v>
       </c>
       <c r="C95">
-        <v>7573</v>
+        <v>82</v>
       </c>
       <c r="D95">
-        <v>384</v>
-      </c>
-      <c r="E95">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43997</v>
       </c>
       <c r="B96">
-        <v>10272</v>
+        <v>427</v>
       </c>
       <c r="C96">
-        <v>7905</v>
+        <v>80</v>
       </c>
       <c r="D96">
-        <v>399</v>
-      </c>
-      <c r="E96">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43998</v>
       </c>
       <c r="B97">
-        <v>10706</v>
+        <v>434</v>
       </c>
       <c r="C97">
-        <v>8190</v>
+        <v>130</v>
       </c>
       <c r="D97">
-        <v>418</v>
-      </c>
-      <c r="E97">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.75">
-      <c r="C100" s="2"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B98">
+        <v>545</v>
+      </c>
+      <c r="C98">
+        <v>104</v>
+      </c>
+      <c r="D98">
+        <v>14</v>
+      </c>
+      <c r="K98" s="2"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B99">
+        <v>617</v>
+      </c>
+      <c r="C99">
+        <v>90</v>
+      </c>
+      <c r="D99">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B100">
+        <v>641</v>
+      </c>
+      <c r="C100">
+        <v>129</v>
+      </c>
+      <c r="D100">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B101">
+        <v>246</v>
+      </c>
+      <c r="C101">
+        <v>139</v>
+      </c>
+      <c r="D101">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B102">
+        <v>390</v>
+      </c>
+      <c r="C102">
+        <v>153</v>
+      </c>
+      <c r="D102">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B103">
+        <v>624</v>
+      </c>
+      <c r="C103">
+        <v>107</v>
+      </c>
+      <c r="D103">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B104">
+        <v>771</v>
+      </c>
+      <c r="C104">
+        <v>79</v>
+      </c>
+      <c r="D104">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B105">
+        <v>279</v>
+      </c>
+      <c r="C105">
+        <v>33</v>
+      </c>
+      <c r="D105">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B106">
+        <v>1009</v>
+      </c>
+      <c r="C106">
+        <v>98</v>
+      </c>
+      <c r="D106">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B107">
+        <v>569</v>
+      </c>
+      <c r="C107">
+        <v>95</v>
+      </c>
+      <c r="D107">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B108">
+        <v>533</v>
+      </c>
+      <c r="C108">
+        <v>29</v>
+      </c>
+      <c r="D108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B109">
+        <v>479</v>
+      </c>
+      <c r="C109">
+        <v>18</v>
+      </c>
+      <c r="D109">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B110">
+        <v>687</v>
+      </c>
+      <c r="C110">
+        <v>24</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B111">
+        <v>915</v>
+      </c>
+      <c r="C111">
+        <v>37</v>
+      </c>
+      <c r="D111">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B112">
+        <v>1061</v>
+      </c>
+      <c r="C112">
+        <v>48</v>
+      </c>
+      <c r="D112">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2515,35 +2319,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378CC24F-AAAE-6047-9ABE-572547F19D29}">
-  <dimension ref="A1:K98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F735BD-EC18-8B43-9C7D-88AE6B932F9C}">
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="K98" sqref="K98"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="H118" sqref="H118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43903</v>
       </c>
@@ -2551,1345 +2360,1884 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43904</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43905</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43906</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43907</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43908</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43909</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43910</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43911</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43912</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43913</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43914</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43915</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43916</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43917</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43918</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43919</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43920</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43921</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43922</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43923</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43924</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>43925</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>43926</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>43927</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>43928</v>
       </c>
       <c r="B27">
+        <v>80</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>43929</v>
       </c>
       <c r="B28">
-        <v>7</v>
+        <v>87</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43930</v>
       </c>
       <c r="B29">
-        <v>39</v>
+        <v>126</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43931</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>43932</v>
       </c>
       <c r="B31">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="D31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43933</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43934</v>
       </c>
       <c r="B33">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>43935</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43936</v>
       </c>
       <c r="B35">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>43937</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>185</v>
       </c>
       <c r="D36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>43938</v>
       </c>
       <c r="B37">
+        <v>235</v>
+      </c>
+      <c r="C37">
+        <v>206</v>
+      </c>
+      <c r="D37">
+        <v>7</v>
+      </c>
+      <c r="E37">
         <v>21</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43939</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="D38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43940</v>
       </c>
       <c r="B39">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>258</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>43941</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>294</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>261</v>
       </c>
       <c r="D40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>7</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>43942</v>
       </c>
       <c r="B41">
-        <v>22</v>
+        <v>316</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="D41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>8</v>
+      </c>
+      <c r="E41">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>43943</v>
       </c>
       <c r="B42">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>305</v>
       </c>
       <c r="D42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>43944</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>384</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="D43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43945</v>
       </c>
       <c r="B44">
-        <v>46</v>
+        <v>430</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>387</v>
       </c>
       <c r="D44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>11</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43946</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>473</v>
       </c>
       <c r="C45">
-        <v>15</v>
+        <v>413</v>
       </c>
       <c r="D45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>43947</v>
       </c>
       <c r="B46">
-        <v>27</v>
+        <v>500</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>434</v>
       </c>
       <c r="D46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43948</v>
       </c>
       <c r="B47">
-        <v>30</v>
+        <v>530</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43949</v>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>557</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>477</v>
       </c>
       <c r="D48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43950</v>
       </c>
       <c r="B49">
-        <v>28</v>
+        <v>585</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>502</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E49">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>43951</v>
       </c>
       <c r="B50">
-        <v>14</v>
+        <v>599</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>515</v>
       </c>
       <c r="D50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E50">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>43952</v>
       </c>
       <c r="B51">
-        <v>45</v>
+        <v>644</v>
       </c>
       <c r="C51">
-        <v>6</v>
+        <v>554</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>16</v>
+      </c>
+      <c r="E51">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43953</v>
       </c>
       <c r="B52">
-        <v>44</v>
+        <v>688</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>597</v>
       </c>
       <c r="D52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E52">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>43954</v>
       </c>
       <c r="B53">
-        <v>15</v>
+        <v>703</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="D53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>17</v>
+      </c>
+      <c r="E53">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>43955</v>
       </c>
       <c r="B54">
-        <v>27</v>
+        <v>730</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>630</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E54">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>43956</v>
       </c>
       <c r="B55">
-        <v>33</v>
+        <v>763</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>663</v>
       </c>
       <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>19</v>
+      </c>
+      <c r="E55">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>43957</v>
       </c>
       <c r="B56">
-        <v>35</v>
+        <v>798</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>689</v>
       </c>
       <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>21</v>
+      </c>
+      <c r="E56">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>43958</v>
       </c>
       <c r="B57">
-        <v>34</v>
+        <v>832</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>717</v>
       </c>
       <c r="D57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>23</v>
+      </c>
+      <c r="E57">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>43959</v>
       </c>
       <c r="B58">
-        <v>68</v>
+        <v>900</v>
       </c>
       <c r="C58">
-        <v>11</v>
+        <v>773</v>
       </c>
       <c r="D58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E58">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>43960</v>
       </c>
       <c r="B59">
-        <v>67</v>
+        <v>967</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>837</v>
       </c>
       <c r="D59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>24</v>
+      </c>
+      <c r="E59">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>43961</v>
       </c>
       <c r="B60">
-        <v>85</v>
+        <v>1052</v>
       </c>
       <c r="C60">
-        <v>6</v>
+        <v>914</v>
       </c>
       <c r="D60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E60">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>43962</v>
       </c>
       <c r="B61">
-        <v>62</v>
+        <v>1114</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>975</v>
       </c>
       <c r="D61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>26</v>
+      </c>
+      <c r="E61">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>43963</v>
       </c>
       <c r="B62">
-        <v>85</v>
+        <v>1199</v>
       </c>
       <c r="C62">
-        <v>9</v>
+        <v>1050</v>
       </c>
       <c r="D62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>43964</v>
       </c>
       <c r="B63">
-        <v>143</v>
+        <v>1342</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>1190</v>
       </c>
       <c r="D63">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E63">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>43965</v>
       </c>
       <c r="B64">
-        <v>176</v>
+        <v>1518</v>
       </c>
       <c r="C64">
-        <v>8</v>
+        <v>1358</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E64">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>43966</v>
       </c>
       <c r="B65">
-        <v>125</v>
+        <v>1643</v>
       </c>
       <c r="C65">
-        <v>6</v>
+        <v>1476</v>
       </c>
       <c r="D65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>43967</v>
       </c>
       <c r="B66">
-        <v>120</v>
+        <v>1763</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>1590</v>
       </c>
       <c r="D66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>33</v>
+      </c>
+      <c r="E66">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>43968</v>
       </c>
       <c r="B67">
-        <v>149</v>
+        <v>1912</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>1737</v>
       </c>
       <c r="D67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>43969</v>
       </c>
       <c r="B68">
-        <v>89</v>
+        <v>2001</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>1822</v>
       </c>
       <c r="D68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E68">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>43970</v>
       </c>
       <c r="B69">
-        <v>132</v>
+        <v>2133</v>
       </c>
       <c r="C69">
-        <v>16</v>
+        <v>1933</v>
       </c>
       <c r="D69">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="E69">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>43971</v>
       </c>
       <c r="B70">
-        <v>132</v>
+        <v>2265</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2059</v>
       </c>
       <c r="D70">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="E70">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>43972</v>
       </c>
       <c r="B71">
-        <v>247</v>
+        <v>2512</v>
       </c>
       <c r="C71">
-        <v>63</v>
+        <v>2240</v>
       </c>
       <c r="D71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>43973</v>
       </c>
       <c r="B72">
-        <v>231</v>
+        <v>2743</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>2468</v>
       </c>
       <c r="D72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>51</v>
+      </c>
+      <c r="E72">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>43974</v>
       </c>
       <c r="B73">
-        <v>311</v>
+        <v>3054</v>
       </c>
       <c r="C73">
-        <v>22</v>
+        <v>2753</v>
       </c>
       <c r="D73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>55</v>
+      </c>
+      <c r="E73">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>43975</v>
       </c>
       <c r="B74">
-        <v>370</v>
+        <v>3424</v>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>3106</v>
       </c>
       <c r="D74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="E74">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>43976</v>
       </c>
       <c r="B75">
-        <v>336</v>
+        <v>3760</v>
       </c>
       <c r="C75">
-        <v>16</v>
+        <v>3425</v>
       </c>
       <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>59</v>
+      </c>
+      <c r="E75">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>43977</v>
       </c>
       <c r="B76">
-        <v>194</v>
+        <v>3954</v>
       </c>
       <c r="C76">
-        <v>15</v>
+        <v>3600</v>
       </c>
       <c r="D76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>63</v>
+      </c>
+      <c r="E76">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>43978</v>
       </c>
       <c r="B77">
-        <v>191</v>
+        <v>4145</v>
       </c>
       <c r="C77">
-        <v>204</v>
+        <v>3582</v>
       </c>
       <c r="D77">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>68</v>
+      </c>
+      <c r="E77">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>43979</v>
       </c>
       <c r="B78">
-        <v>203</v>
+        <v>4348</v>
       </c>
       <c r="C78">
-        <v>72</v>
+        <v>3701</v>
       </c>
       <c r="D78">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>80</v>
+      </c>
+      <c r="E78">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>43980</v>
       </c>
       <c r="B79">
-        <v>259</v>
+        <v>4607</v>
       </c>
       <c r="C79">
-        <v>83</v>
+        <v>3867</v>
       </c>
       <c r="D79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>90</v>
+      </c>
+      <c r="E79">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>43981</v>
       </c>
       <c r="B80">
-        <v>132</v>
+        <v>4739</v>
       </c>
       <c r="C80">
-        <v>58</v>
+        <v>3929</v>
       </c>
       <c r="D80">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="E80">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>43982</v>
       </c>
       <c r="B81">
-        <v>348</v>
+        <v>5087</v>
       </c>
       <c r="C81">
-        <v>29</v>
+        <v>4242</v>
       </c>
       <c r="D81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="E81">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>43983</v>
       </c>
       <c r="B82">
-        <v>249</v>
+        <v>5336</v>
       </c>
       <c r="C82">
-        <v>60</v>
+        <v>4423</v>
       </c>
       <c r="D82">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>116</v>
+      </c>
+      <c r="E82">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>43984</v>
       </c>
       <c r="B83">
-        <v>250</v>
+        <v>5586</v>
       </c>
       <c r="C83">
-        <v>29</v>
+        <v>4637</v>
       </c>
       <c r="D83">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>123</v>
+      </c>
+      <c r="E83">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>43985</v>
       </c>
       <c r="B84">
-        <v>174</v>
+        <v>5760</v>
       </c>
       <c r="C84">
-        <v>105</v>
+        <v>4686</v>
       </c>
       <c r="D84">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>143</v>
+      </c>
+      <c r="E84">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>43986</v>
       </c>
       <c r="B85">
-        <v>394</v>
+        <v>6154</v>
       </c>
       <c r="C85">
-        <v>50</v>
+        <v>5015</v>
       </c>
       <c r="D85">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>158</v>
+      </c>
+      <c r="E85">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>43987</v>
       </c>
       <c r="B86">
-        <v>331</v>
+        <v>6485</v>
       </c>
       <c r="C86">
-        <v>74</v>
+        <v>5214</v>
       </c>
       <c r="D86">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>216</v>
+      </c>
+      <c r="E86">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>43988</v>
       </c>
       <c r="B87">
-        <v>307</v>
+        <v>6792</v>
       </c>
       <c r="C87">
-        <v>80</v>
+        <v>5427</v>
       </c>
       <c r="D87">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>230</v>
+      </c>
+      <c r="E87">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>43989</v>
       </c>
       <c r="B88">
-        <v>263</v>
+        <v>7055</v>
       </c>
       <c r="C88">
-        <v>128</v>
+        <v>5540</v>
       </c>
       <c r="D88">
-        <v>22</v>
-      </c>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7">
+        <v>252</v>
+      </c>
+      <c r="E88">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>43990</v>
       </c>
       <c r="B89">
-        <v>447</v>
+        <v>7502</v>
       </c>
       <c r="C89">
-        <v>62</v>
+        <v>5910</v>
       </c>
       <c r="D89">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="E89">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>43991</v>
       </c>
       <c r="B90">
-        <v>364</v>
+        <v>7866</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>6162</v>
       </c>
       <c r="D90">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>289</v>
+      </c>
+      <c r="E90">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>43992</v>
       </c>
       <c r="B91">
-        <v>355</v>
+        <v>8221</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>6399</v>
       </c>
       <c r="D91">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>316</v>
+      </c>
+      <c r="E91">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>43993</v>
       </c>
       <c r="B92">
-        <v>340</v>
+        <v>8561</v>
       </c>
       <c r="C92">
-        <v>63</v>
+        <v>6658</v>
       </c>
       <c r="D92">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>334</v>
+      </c>
+      <c r="E92">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>43994</v>
       </c>
       <c r="B93">
-        <v>421</v>
+        <v>8982</v>
       </c>
       <c r="C93">
-        <v>135</v>
+        <v>6927</v>
       </c>
       <c r="D93">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>351</v>
+      </c>
+      <c r="E93">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>43995</v>
       </c>
       <c r="B94">
-        <v>509</v>
+        <v>9491</v>
       </c>
       <c r="C94">
-        <v>102</v>
+        <v>7318</v>
       </c>
       <c r="D94">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>367</v>
+      </c>
+      <c r="E94">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>43996</v>
       </c>
       <c r="B95">
-        <v>354</v>
+        <v>9845</v>
       </c>
       <c r="C95">
-        <v>82</v>
+        <v>7573</v>
       </c>
       <c r="D95">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>384</v>
+      </c>
+      <c r="E95">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>43997</v>
       </c>
       <c r="B96">
-        <v>427</v>
+        <v>10272</v>
       </c>
       <c r="C96">
-        <v>80</v>
+        <v>7905</v>
       </c>
       <c r="D96">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>399</v>
+      </c>
+      <c r="E96">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>43998</v>
       </c>
       <c r="B97">
-        <v>434</v>
+        <v>10706</v>
       </c>
       <c r="C97">
-        <v>130</v>
+        <v>8190</v>
       </c>
       <c r="D97">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" ht="15.75">
-      <c r="K98" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="E97">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B98">
+        <v>11251</v>
+      </c>
+      <c r="C98">
+        <v>8617</v>
+      </c>
+      <c r="D98">
+        <v>432</v>
+      </c>
+      <c r="E98">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B99">
+        <v>11868</v>
+      </c>
+      <c r="C99">
+        <v>9127</v>
+      </c>
+      <c r="D99">
+        <v>449</v>
+      </c>
+      <c r="E99">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B100">
+        <v>12509</v>
+      </c>
+      <c r="C100" s="2">
+        <v>9605</v>
+      </c>
+      <c r="D100">
+        <v>483</v>
+      </c>
+      <c r="E100">
+        <v>2419</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B101">
+        <v>12755</v>
+      </c>
+      <c r="C101">
+        <v>9681</v>
+      </c>
+      <c r="D101">
+        <v>514</v>
+      </c>
+      <c r="E101">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B102">
+        <v>13145</v>
+      </c>
+      <c r="C102">
+        <v>9901</v>
+      </c>
+      <c r="D102">
+        <v>531</v>
+      </c>
+      <c r="E102">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B103">
+        <v>13769</v>
+      </c>
+      <c r="C103">
+        <v>10402</v>
+      </c>
+      <c r="D103">
+        <v>547</v>
+      </c>
+      <c r="E103">
+        <v>2818</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B104">
+        <v>14540</v>
+      </c>
+      <c r="C104">
+        <v>11059</v>
+      </c>
+      <c r="D104">
+        <v>582</v>
+      </c>
+      <c r="E104">
+        <v>2897</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B105">
+        <v>14819</v>
+      </c>
+      <c r="C105">
+        <v>11286</v>
+      </c>
+      <c r="D105">
+        <v>601</v>
+      </c>
+      <c r="E105">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B106">
+        <v>15828</v>
+      </c>
+      <c r="C106">
+        <v>12126</v>
+      </c>
+      <c r="D106">
+        <v>672</v>
+      </c>
+      <c r="E106">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B107">
+        <v>16397</v>
+      </c>
+      <c r="C107">
+        <v>12566</v>
+      </c>
+      <c r="D107">
+        <v>706</v>
+      </c>
+      <c r="E107">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B108">
+        <v>16930</v>
+      </c>
+      <c r="C108">
+        <v>13049</v>
+      </c>
+      <c r="D108">
+        <v>727</v>
+      </c>
+      <c r="E108">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B109">
+        <v>17409</v>
+      </c>
+      <c r="C109">
+        <v>13491</v>
+      </c>
+      <c r="D109">
+        <v>746</v>
+      </c>
+      <c r="E109">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B110">
+        <v>18096</v>
+      </c>
+      <c r="C110">
+        <v>14127</v>
+      </c>
+      <c r="D110">
+        <v>773</v>
+      </c>
+      <c r="E110">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B111">
+        <v>19011</v>
+      </c>
+      <c r="C111">
+        <v>14961</v>
+      </c>
+      <c r="D111">
+        <v>817</v>
+      </c>
+      <c r="E111">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B112">
+        <v>20072</v>
+      </c>
+      <c r="C112">
+        <v>15948</v>
+      </c>
+      <c r="D112">
+        <v>843</v>
+      </c>
+      <c r="E112">
+        <v>3279</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3901,188 +4249,188 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B22"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B6">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>13814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
         <v>275</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>7358</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B19">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
         <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -4094,18 +4442,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB47977-1A46-3E45-8CA6-33685BC94525}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -4137,36 +4485,36 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>512</v>
+        <v>750</v>
       </c>
       <c r="B2">
-        <v>710</v>
+        <v>1179</v>
       </c>
       <c r="C2">
-        <v>2957</v>
+        <v>5482</v>
       </c>
       <c r="D2">
-        <v>2586</v>
+        <v>5015</v>
       </c>
       <c r="E2">
-        <v>1851</v>
+        <v>3566</v>
       </c>
       <c r="F2">
-        <v>1170</v>
+        <v>2228</v>
       </c>
       <c r="G2">
-        <v>575</v>
+        <v>1163</v>
       </c>
       <c r="H2">
-        <v>244</v>
+        <v>481</v>
       </c>
       <c r="I2">
-        <v>91</v>
+        <v>183</v>
       </c>
       <c r="J2">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4179,25 +4527,25 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
       <c r="B1">
-        <v>6592</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>12536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2">
-        <v>4114</v>
+        <v>7536</v>
       </c>
     </row>
   </sheetData>
@@ -4207,80 +4555,69 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB674D3-9E41-D649-93CD-CA4AF39B5E4C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="51.95" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:10" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15">
-        <v>7968</v>
-      </c>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:4" ht="69" customHeight="1">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1">
+        <v>14994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19">
-        <v>987</v>
-      </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="95.1" customHeight="1">
-      <c r="A3" s="21" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="23">
-        <v>476</v>
-      </c>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" ht="93.95" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
-        <v>756</v>
-      </c>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="93.95" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11">
-        <v>519</v>
-      </c>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="5">
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
